--- a/Modelagem.xlsx
+++ b/Modelagem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsadm\Documents\Andre\TURMAB\SGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsadm\Documents\SGE\SGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BEDF9E-EFED-4491-8708-B59F0847D02A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5F5A82-7FB8-40C1-BFAD-4DBF266DCAA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C462372-E8DE-4D73-A06F-F452B00B0E7D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
   <si>
     <t>CustomUser</t>
   </si>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>duration</t>
+  </si>
+  <si>
+    <t>ThemeArea</t>
+  </si>
+  <si>
+    <t>themeAreaFK</t>
+  </si>
+  <si>
+    <t>codeName</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -703,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53FCA2A-D3FE-4330-9D0C-071DBF1007B2}">
   <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,6 +925,9 @@
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="D19" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>39</v>
       </c>
@@ -921,8 +936,8 @@
       <c r="B20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>32</v>
+      <c r="D20" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>1</v>
@@ -933,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>41</v>
@@ -944,7 +959,7 @@
         <v>70</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>35</v>
@@ -965,6 +980,9 @@
       <c r="B24" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="D24" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="H24" s="8" t="s">
         <v>60</v>
       </c>
@@ -973,9 +991,6 @@
       <c r="B25" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="H25" s="9" t="s">
         <v>1</v>
       </c>
@@ -984,8 +999,8 @@
       <c r="B26" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>1</v>
+      <c r="D26" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>8</v>
@@ -993,7 +1008,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D27" s="9" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>68</v>
@@ -1021,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>40</v>
@@ -1031,9 +1046,6 @@
       <c r="B30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F30" s="9" t="s">
         <v>69</v>
       </c>
@@ -1042,6 +1054,9 @@
       <c r="B31" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="D31" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="F31" s="9" t="s">
         <v>45</v>
       </c>
@@ -1050,8 +1065,8 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="8" t="s">
-        <v>67</v>
+      <c r="D32" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>14</v>
@@ -1065,7 +1080,7 @@
         <v>46</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>42</v>
@@ -1079,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>75</v>
@@ -1090,7 +1105,7 @@
         <v>47</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>43</v>
@@ -1100,6 +1115,9 @@
       <c r="B36" s="11" t="s">
         <v>70</v>
       </c>
+      <c r="D36" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="H36" s="9" t="s">
         <v>58</v>
       </c>
@@ -1113,8 +1131,8 @@
       <c r="B38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>54</v>
+      <c r="D38" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>37</v>
@@ -1124,7 +1142,7 @@
       <c r="B39" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H39" s="9" t="s">
@@ -1135,44 +1153,58 @@
       <c r="B40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>40</v>
+      <c r="D40" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>53</v>
+      <c r="D41" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="D43" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>52</v>
       </c>
+      <c r="D44" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="D46" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>1</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
